--- a/ig/nr-rm-useless-descr/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-rm-useless-descr/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:42:38+00:00</t>
+    <t>2023-08-29T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,6 +147,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -200,6 +204,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -276,10 +284,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -2006,19 +2010,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2032,10 +2036,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2046,7 +2050,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2055,19 +2059,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2117,13 +2121,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2155,10 +2159,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2169,7 +2173,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2178,16 +2182,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2238,19 +2242,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2276,10 +2280,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2290,7 +2294,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2302,13 +2306,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2359,13 +2363,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2380,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2397,14 +2401,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2423,16 +2427,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2470,19 +2474,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2491,10 +2495,10 @@
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2503,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2520,10 +2524,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2534,28 +2538,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2605,19 +2609,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2626,7 +2630,7 @@
         <v>35</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>35</v>
@@ -2643,10 +2647,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2657,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2666,19 +2670,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2728,19 +2732,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -2749,7 +2753,7 @@
         <v>35</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>35</v>
@@ -2766,10 +2770,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2780,7 +2784,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -2789,19 +2793,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2851,19 +2855,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2872,7 +2876,7 @@
         <v>35</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>35</v>
@@ -2889,10 +2893,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2912,19 +2916,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2974,7 +2978,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2983,10 +2987,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2995,7 +2999,7 @@
         <v>35</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>35</v>
@@ -3012,10 +3016,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3035,19 +3039,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3073,13 +3077,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3097,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3106,10 +3110,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3118,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>35</v>
@@ -3127,7 +3131,7 @@
         <v>35</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AQ10" t="s" s="2">
         <v>35</v>
@@ -3135,10 +3139,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3158,19 +3162,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3196,13 +3200,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3220,7 +3224,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3229,10 +3233,10 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3241,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>35</v>
@@ -3250,7 +3254,7 @@
         <v>35</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>35</v>
@@ -3258,10 +3262,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3272,28 +3276,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3343,19 +3347,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3381,10 +3385,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3395,7 +3399,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3407,16 +3411,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3442,13 +3446,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3466,19 +3470,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3504,21 +3508,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3530,16 +3534,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3589,19 +3593,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3610,7 +3614,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -3627,14 +3631,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3653,16 +3657,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3712,7 +3716,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3733,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -3750,14 +3754,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3776,16 +3780,16 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3835,7 +3839,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3847,7 +3851,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -3856,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>35</v>
@@ -3873,10 +3877,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3893,19 +3897,19 @@
         <v>35</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3956,7 +3960,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3968,7 +3972,7 @@
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -3994,10 +3998,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4005,34 +4009,34 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -4081,48 +4085,48 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4136,22 +4140,22 @@
         <v>36</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4202,7 +4206,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4214,36 +4218,36 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4251,31 +4255,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4286,7 +4290,7 @@
         <v>35</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>35</v>
@@ -4301,13 +4305,13 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
@@ -4325,48 +4329,48 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4386,19 +4390,19 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4424,13 +4428,13 @@
         <v>35</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>35</v>
@@ -4448,37 +4452,37 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4486,10 +4490,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4500,28 +4504,28 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4547,11 +4551,11 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -4569,80 +4573,80 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4668,11 +4672,11 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4690,7 +4694,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4702,36 +4706,36 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4739,10 +4743,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4751,16 +4755,16 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4811,80 +4815,80 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4934,34 +4938,34 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
@@ -4972,10 +4976,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4983,31 +4987,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5057,7 +5061,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5069,36 +5073,36 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5109,10 +5113,10 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
@@ -5121,16 +5125,16 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5180,48 +5184,48 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5232,7 +5236,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -5244,16 +5248,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5303,28 +5307,28 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>35</v>
@@ -5341,10 +5345,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5358,25 +5362,25 @@
         <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5426,7 +5430,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5438,16 +5442,16 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>35</v>
@@ -5459,15 +5463,15 @@
         <v>35</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5478,7 +5482,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5490,13 +5494,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5547,13 +5551,13 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
@@ -5568,7 +5572,7 @@
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -5585,14 +5589,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5611,16 +5615,16 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5670,7 +5674,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5682,7 +5686,7 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
@@ -5691,7 +5695,7 @@
         <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -5708,14 +5712,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5728,25 +5732,25 @@
         <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5795,7 +5799,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5807,7 +5811,7 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
@@ -5816,7 +5820,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -5833,10 +5837,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5844,10 +5848,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5856,19 +5860,19 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5894,13 +5898,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5918,28 +5922,28 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -5951,15 +5955,15 @@
         <v>35</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5967,10 +5971,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5979,16 +5983,16 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6039,28 +6043,28 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6072,15 +6076,15 @@
         <v>35</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6091,31 +6095,31 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
@@ -6164,19 +6168,19 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -6185,7 +6189,7 @@
         <v>35</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6194,18 +6198,18 @@
         <v>35</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6219,28 +6223,28 @@
         <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>35</v>
@@ -6265,13 +6269,13 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
@@ -6289,7 +6293,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6301,36 +6305,36 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6338,28 +6342,28 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6410,10 +6414,10 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
@@ -6422,16 +6426,16 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6448,10 +6452,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6462,7 +6466,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -6474,13 +6478,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6531,13 +6535,13 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
@@ -6552,7 +6556,7 @@
         <v>35</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>35</v>
@@ -6569,14 +6573,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6595,16 +6599,16 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6654,7 +6658,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6666,7 +6670,7 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
@@ -6675,7 +6679,7 @@
         <v>35</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -6692,14 +6696,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6712,25 +6716,25 @@
         <v>35</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>35</v>
@@ -6779,7 +6783,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6791,7 +6795,7 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
@@ -6800,7 +6804,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -6817,10 +6821,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6828,10 +6832,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
@@ -6840,16 +6844,16 @@
         <v>35</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6900,48 +6904,48 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6952,7 +6956,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>35</v>
@@ -6964,13 +6968,13 @@
         <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7021,13 +7025,13 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>35</v>
@@ -7042,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7059,14 +7063,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7085,16 +7089,16 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7132,19 +7136,19 @@
         <v>35</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -7156,7 +7160,7 @@
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -7165,7 +7169,7 @@
         <v>35</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>35</v>
@@ -7182,10 +7186,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7193,10 +7197,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7205,20 +7209,20 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>35</v>
@@ -7231,7 +7235,7 @@
         <v>35</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>35</v>
@@ -7243,13 +7247,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -7267,19 +7271,19 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -7288,7 +7292,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7297,7 +7301,7 @@
         <v>35</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>35</v>
@@ -7305,10 +7309,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7319,29 +7323,29 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>35</v>
@@ -7354,7 +7358,7 @@
         <v>35</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>35</v>
@@ -7366,13 +7370,13 @@
         <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>35</v>
@@ -7390,19 +7394,19 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7411,7 +7415,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -7428,10 +7432,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7439,10 +7443,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -7454,19 +7458,19 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -7515,19 +7519,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -7536,7 +7540,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -7545,7 +7549,7 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
@@ -7553,10 +7557,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7576,22 +7580,22 @@
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -7604,7 +7608,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -7640,19 +7644,19 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -7661,7 +7665,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -7670,7 +7674,7 @@
         <v>35</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>35</v>
@@ -7678,10 +7682,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7692,7 +7696,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -7701,22 +7705,22 @@
         <v>35</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -7765,19 +7769,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -7786,7 +7790,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -7803,10 +7807,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7817,7 +7821,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -7826,22 +7830,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7890,19 +7894,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7911,7 +7915,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -7928,10 +7932,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7939,10 +7943,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7951,20 +7955,20 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -7977,7 +7981,7 @@
         <v>35</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>35</v>
@@ -8013,19 +8017,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8034,7 +8038,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8051,10 +8055,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8065,29 +8069,29 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8136,19 +8140,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8157,7 +8161,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8174,10 +8178,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8188,28 +8192,28 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8235,11 +8239,11 @@
         <v>35</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -8257,31 +8261,31 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>35</v>
@@ -8290,15 +8294,15 @@
         <v>35</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8309,28 +8313,28 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8380,19 +8384,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -8401,7 +8405,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -8418,10 +8422,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8432,7 +8436,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -8444,13 +8448,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8501,13 +8505,13 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
@@ -8522,7 +8526,7 @@
         <v>35</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>35</v>
@@ -8539,14 +8543,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8565,16 +8569,16 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8624,7 +8628,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8636,7 +8640,7 @@
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -8645,7 +8649,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -8662,14 +8666,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8682,25 +8686,25 @@
         <v>35</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
@@ -8749,7 +8753,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8761,7 +8765,7 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
@@ -8770,7 +8774,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -8787,10 +8791,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8813,13 +8817,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8870,7 +8874,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8882,22 +8886,22 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>35</v>
@@ -8908,10 +8912,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8922,7 +8926,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>35</v>
@@ -8934,16 +8938,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8969,13 +8973,13 @@
         <v>35</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>35</v>
@@ -8993,7 +8997,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9005,16 +9009,16 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9026,15 +9030,15 @@
         <v>35</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9045,25 +9049,25 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9114,31 +9118,31 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>35</v>
@@ -9147,15 +9151,15 @@
         <v>35</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9166,10 +9170,10 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>35</v>
@@ -9178,13 +9182,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9211,11 +9215,11 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9233,31 +9237,31 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>35</v>
@@ -9266,15 +9270,15 @@
         <v>35</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9285,10 +9289,10 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
@@ -9297,19 +9301,19 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>35</v>
@@ -9334,11 +9338,11 @@
         <v>35</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>35</v>
@@ -9356,32 +9360,32 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AN61" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
       </c>
@@ -9389,15 +9393,15 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9408,10 +9412,10 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>35</v>
@@ -9420,13 +9424,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9477,31 +9481,31 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9510,15 +9514,15 @@
         <v>35</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9541,16 +9545,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9600,7 +9604,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9612,19 +9616,19 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>35</v>
@@ -9633,7 +9637,7 @@
         <v>35</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
